--- a/Testsuite/MAGMA/config/test_set.xlsx
+++ b/Testsuite/MAGMA/config/test_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastian/PycharmProjects/angrProject/Testsuite/MAGMA/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E376D0-1C9A-E747-835E-7B223C134F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5DEB40-B411-8B49-BC25-9E468D90F885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="500" windowWidth="25660" windowHeight="20920" xr2:uid="{AB4C68B4-DD62-794E-97D0-5B16F6333E1B}"/>
+    <workbookView xWindow="3080" yWindow="500" windowWidth="30960" windowHeight="20840" xr2:uid="{AB4C68B4-DD62-794E-97D0-5B16F6333E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$L$138</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="336">
   <si>
     <t>Patch in Magma</t>
   </si>
@@ -1009,9 +1009,6 @@
     <t>'SimTemporaryVariable' object has no attribute 'reg'</t>
   </si>
   <si>
-    <t>Input is not a correct NetworkX graph.</t>
-  </si>
-  <si>
     <t>'Patching' object has no attribute 'cfge_vuln_specific'</t>
   </si>
   <si>
@@ -1021,7 +1018,40 @@
     <t xml:space="preserve">Timeout occurred </t>
   </si>
   <si>
-    <t>An error occurred: 'NoneType' object is not iterable</t>
+    <t>1 (POC not triggered)</t>
+  </si>
+  <si>
+    <t>0 (Fuzzer runs in Segfault)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'NoneType' object is not iterable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoneType' object is not iterable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patching' object has no attribute 'cfge_vuln_specific' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Patching' object has no attribute 'cfge_vuln_specific' </t>
+  </si>
+  <si>
+    <t>Function not found probably because the compiler configuration with JBIG support did not work</t>
+  </si>
+  <si>
+    <t>Patching' object has no attribute 'cfge_vuln_specific' --&gt; solved / Now NoneType object is not iterable</t>
+  </si>
+  <si>
+    <t>Patching' object has no attribute 'cfge_vuln_specific'--&gt; solved / New Problem: Invalid Address (maybe patch size to large?!)</t>
+  </si>
+  <si>
+    <t>Input is not a correct NetworkX graph.-&gt; solved / 'NoneType' object is not iterable</t>
+  </si>
+  <si>
+    <t>Patching' object has no attribute 'cfge_vuln_specific' -&gt; Function not found. Probably wrong compilation config</t>
+  </si>
+  <si>
+    <t>Timeout while bindiffing… weird</t>
   </si>
 </sst>
 </file>
@@ -1109,14 +1139,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1124,19 +1153,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1147,6 +1182,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2990,7 +3035,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DEBD87D-9B02-B541-8A6A-2BFC50560FD1}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DEBD87D-9B02-B541-8A6A-2BFC50560FD1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:C148" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -3975,10 +4020,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="C1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="118" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3986,12 +4031,13 @@
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
@@ -4016,7 +4062,7 @@
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="9" t="s">
         <v>314</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -4029,7 +4075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -4107,7 +4153,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -4133,7 +4179,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>12</v>
       </c>
@@ -4159,7 +4205,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>13</v>
       </c>
@@ -4229,11 +4275,17 @@
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
       <c r="L13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>25</v>
       </c>
@@ -4249,11 +4301,14 @@
       <c r="H14">
         <v>0</v>
       </c>
+      <c r="K14" s="8" t="s">
+        <v>323</v>
+      </c>
       <c r="L14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>26</v>
       </c>
@@ -4273,7 +4328,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>27</v>
       </c>
@@ -4289,14 +4344,14 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="8" t="s">
         <v>315</v>
       </c>
       <c r="L16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>28</v>
       </c>
@@ -4312,11 +4367,17 @@
       <c r="H17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
       <c r="L17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>29</v>
       </c>
@@ -4331,6 +4392,12 @@
       </c>
       <c r="H18">
         <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>324</v>
       </c>
       <c r="L18" t="s">
         <v>97</v>
@@ -4349,11 +4416,20 @@
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
       <c r="L19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>31</v>
       </c>
@@ -4369,11 +4445,17 @@
       <c r="H20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>324</v>
+      </c>
       <c r="L20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" ht="85" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>32</v>
       </c>
@@ -4389,11 +4471,14 @@
       <c r="H21">
         <v>0</v>
       </c>
+      <c r="K21" s="10" t="s">
+        <v>332</v>
+      </c>
       <c r="L21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>33</v>
       </c>
@@ -4409,14 +4494,14 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="8" t="s">
         <v>316</v>
       </c>
       <c r="L22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>34</v>
       </c>
@@ -4432,7 +4517,7 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="8" t="s">
         <v>317</v>
       </c>
       <c r="L23" t="s">
@@ -4452,11 +4537,20 @@
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
       <c r="L24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="3:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" ht="68" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>36</v>
       </c>
@@ -4472,14 +4566,14 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="K25" s="8" t="s">
-        <v>318</v>
+      <c r="K25" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="L25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" ht="68" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>37</v>
       </c>
@@ -4495,8 +4589,8 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>318</v>
+      <c r="K26" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="L26" t="s">
         <v>99</v>
@@ -4520,11 +4614,14 @@
       <c r="G30">
         <v>1</v>
       </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
       <c r="L30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>54</v>
       </c>
@@ -4540,7 +4637,7 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="8" t="s">
         <v>319</v>
       </c>
       <c r="L31" t="s">
@@ -4563,11 +4660,14 @@
       <c r="H32">
         <v>0</v>
       </c>
+      <c r="K32" s="8" t="s">
+        <v>317</v>
+      </c>
       <c r="L32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="4:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>56</v>
       </c>
@@ -4600,11 +4700,20 @@
       <c r="G34">
         <v>0</v>
       </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
       <c r="L34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="4:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>58</v>
       </c>
@@ -4619,6 +4728,12 @@
       </c>
       <c r="H35">
         <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>324</v>
       </c>
       <c r="L35" t="s">
         <v>101</v>
@@ -4637,6 +4752,15 @@
       <c r="G36">
         <v>0</v>
       </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
       <c r="L36" t="s">
         <v>97</v>
       </c>
@@ -4657,14 +4781,14 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="8" t="s">
         <v>320</v>
       </c>
       <c r="L37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:12" ht="51" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>61</v>
       </c>
@@ -4680,8 +4804,8 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="K38" s="9" t="s">
-        <v>321</v>
+      <c r="K38" s="8" t="s">
+        <v>333</v>
       </c>
       <c r="L38" t="s">
         <v>97</v>
@@ -4700,6 +4824,15 @@
       <c r="G39">
         <v>0</v>
       </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
       <c r="L39" t="s">
         <v>103</v>
       </c>
@@ -4717,6 +4850,15 @@
       <c r="G40">
         <v>0</v>
       </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
       <c r="L40" t="s">
         <v>95</v>
       </c>
@@ -4734,6 +4876,15 @@
       <c r="G41">
         <v>1</v>
       </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
       <c r="L41" t="s">
         <v>106</v>
       </c>
@@ -4751,11 +4902,20 @@
       <c r="G42">
         <v>0</v>
       </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
       <c r="L42" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="4:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>66</v>
       </c>
@@ -4775,7 +4935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="4:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>67</v>
       </c>
@@ -4789,16 +4949,13 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>322</v>
+        <v>1</v>
       </c>
       <c r="L44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="4:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:12" ht="68" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>68</v>
       </c>
@@ -4814,14 +4971,14 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>322</v>
+      <c r="K45" s="10" t="s">
+        <v>334</v>
       </c>
       <c r="L45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>69</v>
       </c>
@@ -4837,8 +4994,8 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="K46" t="s">
-        <v>323</v>
+      <c r="K46" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="L46" t="s">
         <v>100</v>
@@ -4849,7 +5006,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>108</v>
       </c>
@@ -4866,7 +5023,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
         <v>109</v>
       </c>
@@ -4917,7 +5074,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>112</v>
       </c>
@@ -4951,7 +5108,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
         <v>114</v>
       </c>
@@ -4968,7 +5125,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>115</v>
       </c>
@@ -4985,7 +5142,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>116</v>
       </c>
@@ -5002,7 +5159,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>117</v>
       </c>
@@ -5019,7 +5176,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>118</v>
       </c>
@@ -5036,7 +5193,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
         <v>119</v>
       </c>
@@ -5070,7 +5227,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
         <v>121</v>
       </c>
@@ -5104,7 +5261,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>123</v>
       </c>
@@ -5121,7 +5278,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
         <v>124</v>
       </c>
@@ -5138,7 +5295,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
         <v>125</v>
       </c>
@@ -5155,7 +5312,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
         <v>126</v>
       </c>
@@ -5172,7 +5329,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
         <v>127</v>
       </c>
@@ -5189,7 +5346,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
         <v>128</v>
       </c>
@@ -5263,11 +5420,14 @@
       <c r="G76">
         <v>1</v>
       </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
       <c r="L76" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
         <v>160</v>
       </c>
@@ -5280,11 +5440,17 @@
       <c r="G77">
         <v>0</v>
       </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>335</v>
+      </c>
       <c r="L77" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>161</v>
       </c>
@@ -5296,6 +5462,12 @@
       </c>
       <c r="G78">
         <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>335</v>
       </c>
       <c r="L78" t="s">
         <v>156</v>
@@ -5314,11 +5486,17 @@
       <c r="G79">
         <v>0</v>
       </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>317</v>
+      </c>
       <c r="L79" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
         <v>163</v>
       </c>
@@ -5331,11 +5509,17 @@
       <c r="G80">
         <v>0</v>
       </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="L80" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>164</v>
       </c>
@@ -5348,11 +5532,17 @@
       <c r="G81">
         <v>0</v>
       </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="L81" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>165</v>
       </c>
@@ -5365,11 +5555,14 @@
       <c r="G82">
         <v>0</v>
       </c>
+      <c r="K82" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="L82" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
         <v>166</v>
       </c>
@@ -5382,11 +5575,17 @@
       <c r="G83">
         <v>1</v>
       </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="L83" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
         <v>167</v>
       </c>
@@ -5399,11 +5598,17 @@
       <c r="G84">
         <v>0</v>
       </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="L84" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
         <v>168</v>
       </c>
@@ -5415,6 +5620,9 @@
       </c>
       <c r="G85">
         <v>0</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="L85" t="s">
         <v>94</v>
@@ -5474,7 +5682,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="3:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
         <v>172</v>
       </c>
@@ -5486,6 +5694,9 @@
       </c>
       <c r="G89">
         <v>0</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="L89" t="s">
         <v>94</v>
@@ -5541,11 +5752,14 @@
       <c r="G92">
         <v>0</v>
       </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
       <c r="L92" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
         <v>176</v>
       </c>
@@ -5558,11 +5772,17 @@
       <c r="G93">
         <v>0</v>
       </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>317</v>
+      </c>
       <c r="L93" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
         <v>177</v>
       </c>
@@ -5574,6 +5794,12 @@
       </c>
       <c r="G94">
         <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="L94" t="s">
         <v>97</v>
@@ -5584,7 +5810,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
         <v>199</v>
       </c>
@@ -5600,11 +5826,14 @@
       <c r="H98">
         <v>0</v>
       </c>
+      <c r="K98" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="L98" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
         <v>200</v>
       </c>
@@ -5620,14 +5849,14 @@
       <c r="H99">
         <v>0</v>
       </c>
-      <c r="K99" t="s">
-        <v>324</v>
+      <c r="K99" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="L99" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="3:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
         <v>201</v>
       </c>
@@ -5643,7 +5872,7 @@
       <c r="H100">
         <v>1</v>
       </c>
-      <c r="K100" s="9" t="s">
+      <c r="I100" t="s">
         <v>325</v>
       </c>
       <c r="L100" t="s">
@@ -5667,7 +5896,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
         <v>203</v>
       </c>
@@ -5680,11 +5909,17 @@
       <c r="G102">
         <v>0</v>
       </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="L102" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
         <v>204</v>
       </c>
@@ -5697,11 +5932,17 @@
       <c r="G103">
         <v>0</v>
       </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>326</v>
+      </c>
       <c r="L103" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
         <v>205</v>
       </c>
@@ -5714,11 +5955,17 @@
       <c r="G104">
         <v>0</v>
       </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>326</v>
+      </c>
       <c r="L104" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
         <v>206</v>
       </c>
@@ -5731,11 +5978,17 @@
       <c r="G105">
         <v>0</v>
       </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>321</v>
+      </c>
       <c r="L105" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
         <v>207</v>
       </c>
@@ -5748,11 +6001,17 @@
       <c r="G106">
         <v>0</v>
       </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>321</v>
+      </c>
       <c r="L106" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
         <v>208</v>
       </c>
@@ -5765,11 +6024,17 @@
       <c r="G107">
         <v>1</v>
       </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>323</v>
+      </c>
       <c r="L107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
         <v>209</v>
       </c>
@@ -5782,11 +6047,17 @@
       <c r="G108">
         <v>0</v>
       </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>321</v>
+      </c>
       <c r="L108" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
         <v>210</v>
       </c>
@@ -5799,11 +6070,17 @@
       <c r="G109">
         <v>1</v>
       </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>323</v>
+      </c>
       <c r="L109" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
         <v>211</v>
       </c>
@@ -5816,11 +6093,17 @@
       <c r="G110">
         <v>1</v>
       </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="K110" s="8" t="s">
+        <v>320</v>
+      </c>
       <c r="L110" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
         <v>212</v>
       </c>
@@ -5833,11 +6116,17 @@
       <c r="G111">
         <v>1</v>
       </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>327</v>
+      </c>
       <c r="L111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
         <v>213</v>
       </c>
@@ -5849,6 +6138,12 @@
       </c>
       <c r="G112">
         <v>1</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="L112" t="s">
         <v>152</v>
@@ -5904,6 +6199,9 @@
       <c r="G115">
         <v>1</v>
       </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
       <c r="L115" t="s">
         <v>240</v>
       </c>
@@ -5925,7 +6223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
         <v>218</v>
       </c>
@@ -5937,6 +6235,12 @@
       </c>
       <c r="G117">
         <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="L117" t="s">
         <v>94</v>
@@ -6230,44 +6534,113 @@
       </c>
       <c r="H138">
         <f>SUM(H2:H135)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I138">
         <f>SUM(I2:I137)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J138">
         <f>SUM(J2:J137)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:L138" xr:uid="{0D35F5DD-91A1-BA4E-B086-8A8452BA0A88}">
+    <filterColumn colId="1">
+      <filters blank="1">
+        <filter val="Not looked at compiling issues"/>
+        <filter val="PHP001"/>
+        <filter val="PHP002"/>
+        <filter val="PHP003"/>
+        <filter val="PHP004"/>
+        <filter val="PHP005"/>
+        <filter val="PHP006"/>
+        <filter val="PHP009"/>
+        <filter val="PHP012"/>
+        <filter val="PHP013"/>
+        <filter val="PHP014"/>
+        <filter val="PNG001"/>
+        <filter val="PNG004"/>
+        <filter val="PNG005"/>
+        <filter val="PNG006"/>
+        <filter val="SQL001"/>
+        <filter val="SQL002"/>
+        <filter val="SQL003"/>
+        <filter val="SQL005"/>
+        <filter val="SQL006"/>
+        <filter val="SQL007"/>
+        <filter val="SQL008"/>
+        <filter val="SQL009"/>
+        <filter val="SQL010"/>
+        <filter val="SQL011"/>
+        <filter val="SQL012"/>
+        <filter val="SQL013"/>
+        <filter val="SQL014"/>
+        <filter val="SQL015"/>
+        <filter val="SQL018"/>
+        <filter val="SQL020"/>
+        <filter val="SSL002"/>
+        <filter val="SSL003"/>
+        <filter val="SSL004"/>
+        <filter val="SSL005"/>
+        <filter val="SSL006"/>
+        <filter val="SSL007"/>
+        <filter val="SSL009"/>
+        <filter val="SSL010"/>
+        <filter val="SSL013"/>
+        <filter val="SSL014"/>
+        <filter val="SSL016"/>
+        <filter val="SSL018"/>
+        <filter val="SSL019"/>
+        <filter val="SSL020"/>
+        <filter val="TIF002"/>
+        <filter val="TIF003"/>
+        <filter val="TIF004"/>
+        <filter val="TIF005"/>
+        <filter val="TIF006"/>
+        <filter val="TIF008"/>
+        <filter val="TIF009"/>
+        <filter val="TIF010"/>
+        <filter val="TIF011"/>
+        <filter val="TIF013"/>
+        <filter val="TIF014"/>
+        <filter val="XML002"/>
+        <filter val="XML003"/>
+        <filter val="XML004"/>
+        <filter val="XML006"/>
+        <filter val="XML008"/>
+        <filter val="XML009"/>
+        <filter val="XML014"/>
+        <filter val="XML015"/>
+        <filter val="XML016"/>
+        <filter val="XML017"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="1"/>
         <filter val="81"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="0"/>
-        <filter val="14"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A25:J25 L25:XFD25 A136:G136 I136:XFD136 A137:XFD1048576 A115:J115 L115:XFD115 A116:XFD135 A90:XFD114 A76:J89 L76:XFD89 K89 K77:K87 A24:XFD24 A23:H23 J23:XFD23 A1:XFD22 A26:XFD47 A48:K48 M48:XFD48 A49:XFD75">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="beginsWith" text="0">
+      <formula>LEFT(A1,LEN("0"))="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD24 A136:G136 I136:XFD136 A137:XFD1048576 A26:XFD135 A25:J25 L25:XFD25">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="5" stopIfTrue="1" operator="beginsWith" text="0">
-      <formula>LEFT(A1,LEN("0"))="0"</formula>
+  <conditionalFormatting sqref="A115:J115 L115:XFD115 A116:XFD1048576 A90:XFD114 A76:J89 L76:XFD89 K89 K77:K87 A23:H23 J23:XFD23 A1:XFD22 A24:XFD47 A48:K48 M48:XFD48 A49:XFD75">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"1 (POC not triggered)"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6327,2845 +6700,2086 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6" t="s">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6" t="s">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-    </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6" t="s">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6" t="s">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6" t="s">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
+      <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6" t="s">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
+      <c r="D25" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
+      <c r="D26" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6">
-        <v>1</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6" t="s">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
+      <c r="D27" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6" t="s">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
+      <c r="D28" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6" t="s">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
+      <c r="D29" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6" t="s">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
+      <c r="D30" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6" t="s">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6" t="s">
+      <c r="D31" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6" t="s">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-    </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C34" s="6" t="s">
+      <c r="C34" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
+      <c r="D35" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
-        <v>1</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6" t="s">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
+      <c r="D36" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="6">
-        <v>1</v>
-      </c>
-      <c r="G36" s="6">
-        <v>1</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6" t="s">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C37" s="6"/>
-      <c r="D37" s="6" t="s">
+      <c r="D37" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="6">
-        <v>1</v>
-      </c>
-      <c r="G37" s="6">
-        <v>1</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6" t="s">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6" t="s">
+      <c r="D38" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="6">
-        <v>1</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6" t="s">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C39" s="6"/>
-      <c r="D39" s="6" t="s">
+      <c r="D39" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="6">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6" t="s">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6" t="s">
+      <c r="D40" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="6">
-        <v>1</v>
-      </c>
-      <c r="G40" s="6">
-        <v>1</v>
-      </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6" t="s">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6" t="s">
+      <c r="D41" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="6">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0</v>
-      </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6" t="s">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6" t="s">
+      <c r="D42" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="6">
-        <v>1</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6" t="s">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C43" s="6"/>
-      <c r="D43" s="6" t="s">
+      <c r="D43" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="6">
-        <v>1</v>
-      </c>
-      <c r="G43" s="6">
-        <v>1</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6" t="s">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6" t="s">
+      <c r="D44" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="6">
-        <v>0</v>
-      </c>
-      <c r="G44" s="6">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6" t="s">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C45" s="6"/>
-      <c r="D45" s="6" t="s">
+      <c r="D45" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="6">
-        <v>0</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0</v>
-      </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6" t="s">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6" t="s">
+      <c r="D46" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" t="s">
         <v>81</v>
       </c>
-      <c r="F46" s="6">
-        <v>0</v>
-      </c>
-      <c r="G46" s="6">
-        <v>1</v>
-      </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6" t="s">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C47" s="6"/>
-      <c r="D47" s="6" t="s">
+      <c r="D47" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="6">
-        <v>0</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6" t="s">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6" t="s">
+      <c r="D48" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="6">
-        <v>1</v>
-      </c>
-      <c r="G48" s="6">
-        <v>0</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6" t="s">
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6" t="s">
+      <c r="D49" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" t="s">
         <v>84</v>
       </c>
-      <c r="F49" s="6">
-        <v>1</v>
-      </c>
-      <c r="G49" s="6">
-        <v>0</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6" t="s">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6" t="s">
+      <c r="D50" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="6">
-        <v>1</v>
-      </c>
-      <c r="G50" s="6">
-        <v>0</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6" t="s">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C51" s="6"/>
-      <c r="D51" s="6" t="s">
+      <c r="D51" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="6">
-        <v>1</v>
-      </c>
-      <c r="G51" s="6">
-        <v>1</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6" t="s">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6" t="s">
+      <c r="D52" t="s">
         <v>275</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C54" s="6" t="s">
+      <c r="C54" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C55" s="6"/>
-      <c r="D55" s="6" t="s">
+      <c r="D55" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" t="s">
         <v>130</v>
       </c>
-      <c r="F55" s="6">
-        <v>1</v>
-      </c>
-      <c r="G55" s="6">
-        <v>1</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6" t="s">
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6" t="s">
+      <c r="D56" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" t="s">
         <v>131</v>
       </c>
-      <c r="F56" s="6">
-        <v>1</v>
-      </c>
-      <c r="G56" s="6">
-        <v>1</v>
-      </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6" t="s">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C57" s="6"/>
-      <c r="D57" s="6" t="s">
+      <c r="D57" t="s">
         <v>110</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" t="s">
         <v>132</v>
       </c>
-      <c r="F57" s="6">
-        <v>0</v>
-      </c>
-      <c r="G57" s="6">
-        <v>1</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6" t="s">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6" t="s">
+      <c r="D58" t="s">
         <v>111</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" t="s">
         <v>133</v>
       </c>
-      <c r="F58" s="6">
-        <v>0</v>
-      </c>
-      <c r="G58" s="6">
-        <v>1</v>
-      </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6" t="s">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C59" s="6"/>
-      <c r="D59" s="6" t="s">
+      <c r="D59" t="s">
         <v>112</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" t="s">
         <v>134</v>
       </c>
-      <c r="F59" s="6">
-        <v>1</v>
-      </c>
-      <c r="G59" s="6">
-        <v>1</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6" t="s">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C60" s="6"/>
-      <c r="D60" s="6" t="s">
+      <c r="D60" t="s">
         <v>113</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" t="s">
         <v>135</v>
       </c>
-      <c r="F60" s="6">
-        <v>0</v>
-      </c>
-      <c r="G60" s="6">
-        <v>1</v>
-      </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6" t="s">
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C61" s="6"/>
-      <c r="D61" s="6" t="s">
+      <c r="D61" t="s">
         <v>114</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" t="s">
         <v>136</v>
       </c>
-      <c r="F61" s="6">
-        <v>1</v>
-      </c>
-      <c r="G61" s="6">
-        <v>1</v>
-      </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6" t="s">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C62" s="6"/>
-      <c r="D62" s="6" t="s">
+      <c r="D62" t="s">
         <v>115</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" t="s">
         <v>137</v>
       </c>
-      <c r="F62" s="6">
-        <v>1</v>
-      </c>
-      <c r="G62" s="6">
-        <v>1</v>
-      </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6" t="s">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C63" s="6"/>
-      <c r="D63" s="6" t="s">
+      <c r="D63" t="s">
         <v>116</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" t="s">
         <v>138</v>
       </c>
-      <c r="F63" s="6">
-        <v>1</v>
-      </c>
-      <c r="G63" s="6">
-        <v>1</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6" t="s">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6" t="s">
+      <c r="D64" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" t="s">
         <v>139</v>
       </c>
-      <c r="F64" s="6">
-        <v>1</v>
-      </c>
-      <c r="G64" s="6">
-        <v>1</v>
-      </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6" t="s">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C65" s="6"/>
-      <c r="D65" s="6" t="s">
+      <c r="D65" t="s">
         <v>118</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" t="s">
         <v>140</v>
       </c>
-      <c r="F65" s="6">
-        <v>1</v>
-      </c>
-      <c r="G65" s="6">
-        <v>1</v>
-      </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6" t="s">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C66" s="6"/>
-      <c r="D66" s="6" t="s">
+      <c r="D66" t="s">
         <v>119</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" t="s">
         <v>141</v>
       </c>
-      <c r="F66" s="6">
-        <v>1</v>
-      </c>
-      <c r="G66" s="6">
-        <v>0</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6" t="s">
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C67" s="6"/>
-      <c r="D67" s="6" t="s">
+      <c r="D67" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" t="s">
         <v>142</v>
       </c>
-      <c r="F67" s="6">
-        <v>0</v>
-      </c>
-      <c r="G67" s="6">
-        <v>0</v>
-      </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6" t="s">
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="68" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C68" s="6"/>
-      <c r="D68" s="6" t="s">
+      <c r="D68" t="s">
         <v>121</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" t="s">
         <v>143</v>
       </c>
-      <c r="F68" s="6">
-        <v>1</v>
-      </c>
-      <c r="G68" s="6">
-        <v>0</v>
-      </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6" t="s">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="69" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C69" s="6"/>
-      <c r="D69" s="6" t="s">
+      <c r="D69" t="s">
         <v>122</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" t="s">
         <v>144</v>
       </c>
-      <c r="F69" s="6">
-        <v>0</v>
-      </c>
-      <c r="G69" s="6">
-        <v>0</v>
-      </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6" t="s">
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="70" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C70" s="6"/>
-      <c r="D70" s="6" t="s">
+      <c r="D70" t="s">
         <v>123</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" t="s">
         <v>145</v>
       </c>
-      <c r="F70" s="6">
-        <v>1</v>
-      </c>
-      <c r="G70" s="6">
-        <v>1</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6" t="s">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C71" s="6"/>
-      <c r="D71" s="6" t="s">
+      <c r="D71" t="s">
         <v>124</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" t="s">
         <v>146</v>
       </c>
-      <c r="F71" s="6">
-        <v>1</v>
-      </c>
-      <c r="G71" s="6">
-        <v>0</v>
-      </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6" t="s">
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C72" s="6"/>
-      <c r="D72" s="6" t="s">
+      <c r="D72" t="s">
         <v>125</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" t="s">
         <v>147</v>
       </c>
-      <c r="F72" s="6">
-        <v>1</v>
-      </c>
-      <c r="G72" s="6">
-        <v>1</v>
-      </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6" t="s">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C73" s="6"/>
-      <c r="D73" s="6" t="s">
+      <c r="D73" t="s">
         <v>126</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" t="s">
         <v>148</v>
       </c>
-      <c r="F73" s="6">
-        <v>1</v>
-      </c>
-      <c r="G73" s="6">
-        <v>1</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6" t="s">
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C74" s="6"/>
-      <c r="D74" s="6" t="s">
+      <c r="D74" t="s">
         <v>127</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" t="s">
         <v>149</v>
       </c>
-      <c r="F74" s="6">
-        <v>1</v>
-      </c>
-      <c r="G74" s="6">
-        <v>0</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6" t="s">
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C75" s="6"/>
-      <c r="D75" s="6" t="s">
+      <c r="D75" t="s">
         <v>128</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" t="s">
         <v>150</v>
       </c>
-      <c r="F75" s="6">
-        <v>1</v>
-      </c>
-      <c r="G75" s="6">
-        <v>1</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6" t="s">
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C76" s="6"/>
-      <c r="D76" s="6" t="s">
+      <c r="D76" t="s">
         <v>129</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" t="s">
         <v>151</v>
       </c>
-      <c r="F76" s="6">
-        <v>0</v>
-      </c>
-      <c r="G76" s="6">
-        <v>0</v>
-      </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6" t="s">
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="77" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C77" s="6"/>
-      <c r="D77" s="6" t="s">
+      <c r="D77" t="s">
         <v>276</v>
       </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-    </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
     </row>
     <row r="79" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C79" s="6" t="s">
+      <c r="C79" t="s">
         <v>157</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C80" s="6"/>
-      <c r="D80" s="6" t="s">
+      <c r="D80" t="s">
         <v>158</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" t="s">
         <v>178</v>
       </c>
-      <c r="F80" s="6">
-        <v>0</v>
-      </c>
-      <c r="G80" s="6">
-        <v>1</v>
-      </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6" t="s">
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C81" s="6"/>
-      <c r="D81" s="6" t="s">
+    <row r="81" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
         <v>159</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" t="s">
         <v>179</v>
       </c>
-      <c r="F81" s="6">
-        <v>1</v>
-      </c>
-      <c r="G81" s="6">
-        <v>1</v>
-      </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6" t="s">
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C82" s="6"/>
-      <c r="D82" s="6" t="s">
+    <row r="82" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
         <v>160</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" t="s">
         <v>180</v>
       </c>
-      <c r="F82" s="6">
-        <v>1</v>
-      </c>
-      <c r="G82" s="6">
-        <v>0</v>
-      </c>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6" t="s">
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="L82" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C83" s="6"/>
-      <c r="D83" s="6" t="s">
+    <row r="83" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
         <v>161</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" t="s">
         <v>181</v>
       </c>
-      <c r="F83" s="6">
-        <v>1</v>
-      </c>
-      <c r="G83" s="6">
-        <v>0</v>
-      </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6" t="s">
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="L83" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C84" s="6"/>
-      <c r="D84" s="6" t="s">
+    <row r="84" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
         <v>162</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" t="s">
         <v>182</v>
       </c>
-      <c r="F84" s="6">
-        <v>1</v>
-      </c>
-      <c r="G84" s="6">
-        <v>0</v>
-      </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6" t="s">
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="L84" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C85" s="6"/>
-      <c r="D85" s="6" t="s">
+    <row r="85" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
         <v>163</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" t="s">
         <v>183</v>
       </c>
-      <c r="F85" s="6">
-        <v>1</v>
-      </c>
-      <c r="G85" s="6">
-        <v>0</v>
-      </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6" t="s">
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="L85" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C86" s="6"/>
-      <c r="D86" s="6" t="s">
+    <row r="86" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
         <v>164</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" t="s">
         <v>184</v>
       </c>
-      <c r="F86" s="6">
-        <v>1</v>
-      </c>
-      <c r="G86" s="6">
-        <v>0</v>
-      </c>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6" t="s">
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="L86" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C87" s="6"/>
-      <c r="D87" s="6" t="s">
+    <row r="87" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
         <v>165</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" t="s">
         <v>185</v>
       </c>
-      <c r="F87" s="6">
-        <v>0</v>
-      </c>
-      <c r="G87" s="6">
-        <v>0</v>
-      </c>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6" t="s">
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="L87" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C88" s="6"/>
-      <c r="D88" s="6" t="s">
+    <row r="88" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
         <v>166</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" t="s">
         <v>186</v>
       </c>
-      <c r="F88" s="6">
-        <v>1</v>
-      </c>
-      <c r="G88" s="6">
-        <v>1</v>
-      </c>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6" t="s">
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C89" s="6"/>
-      <c r="D89" s="6" t="s">
+    <row r="89" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
         <v>167</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" t="s">
         <v>187</v>
       </c>
-      <c r="F89" s="6">
-        <v>0</v>
-      </c>
-      <c r="G89" s="6">
-        <v>0</v>
-      </c>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6" t="s">
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C90" s="6"/>
-      <c r="D90" s="6" t="s">
+    <row r="90" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
         <v>168</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" t="s">
         <v>188</v>
       </c>
-      <c r="F90" s="6">
-        <v>0</v>
-      </c>
-      <c r="G90" s="6">
-        <v>0</v>
-      </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6" t="s">
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="L90" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C91" s="6"/>
-      <c r="D91" s="6" t="s">
+    <row r="91" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
         <v>169</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" t="s">
         <v>189</v>
       </c>
-      <c r="F91" s="6">
-        <v>1</v>
-      </c>
-      <c r="G91" s="6">
-        <v>0</v>
-      </c>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6" t="s">
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="L91" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C92" s="6"/>
-      <c r="D92" s="6" t="s">
+    <row r="92" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
         <v>170</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" t="s">
         <v>190</v>
       </c>
-      <c r="F92" s="6">
-        <v>1</v>
-      </c>
-      <c r="G92" s="6">
-        <v>0</v>
-      </c>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6" t="s">
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="L92" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C93" s="6"/>
-      <c r="D93" s="6" t="s">
+    <row r="93" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
         <v>171</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="6">
-        <v>1</v>
-      </c>
-      <c r="G93" s="6">
-        <v>0</v>
-      </c>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6" t="s">
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="L93" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C94" s="6"/>
-      <c r="D94" s="6" t="s">
+    <row r="94" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
         <v>172</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" t="s">
         <v>192</v>
       </c>
-      <c r="F94" s="6">
-        <v>1</v>
-      </c>
-      <c r="G94" s="6">
-        <v>0</v>
-      </c>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6" t="s">
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C95" s="6"/>
-      <c r="D95" s="6" t="s">
+    <row r="95" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
         <v>173</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" t="s">
         <v>193</v>
       </c>
-      <c r="F95" s="6">
-        <v>1</v>
-      </c>
-      <c r="G95" s="6">
-        <v>0</v>
-      </c>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6" t="s">
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="L95" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C96" s="6"/>
-      <c r="D96" s="6" t="s">
+    <row r="96" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
         <v>174</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" t="s">
         <v>194</v>
       </c>
-      <c r="F96" s="6">
-        <v>1</v>
-      </c>
-      <c r="G96" s="6">
-        <v>0</v>
-      </c>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6" t="s">
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="L96" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C97" s="6"/>
-      <c r="D97" s="6" t="s">
+      <c r="D97" t="s">
         <v>175</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" t="s">
         <v>195</v>
       </c>
-      <c r="F97" s="6">
-        <v>0</v>
-      </c>
-      <c r="G97" s="6">
-        <v>0</v>
-      </c>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6" t="s">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="L97" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="98" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C98" s="6"/>
-      <c r="D98" s="6" t="s">
+      <c r="D98" t="s">
         <v>176</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" t="s">
         <v>196</v>
       </c>
-      <c r="F98" s="6">
-        <v>1</v>
-      </c>
-      <c r="G98" s="6">
-        <v>0</v>
-      </c>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6" t="s">
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="L98" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="99" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C99" s="6"/>
-      <c r="D99" s="6" t="s">
+      <c r="D99" t="s">
         <v>177</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" t="s">
         <v>197</v>
       </c>
-      <c r="F99" s="6">
-        <v>1</v>
-      </c>
-      <c r="G99" s="6">
-        <v>1</v>
-      </c>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6" t="s">
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="L99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-    </row>
     <row r="102" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C102" s="6" t="s">
+      <c r="C102" t="s">
         <v>198</v>
       </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
     </row>
     <row r="103" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C103" s="6"/>
-      <c r="D103" s="6" t="s">
+      <c r="D103" t="s">
         <v>199</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" t="s">
         <v>151</v>
       </c>
-      <c r="F103" s="6">
-        <v>1</v>
-      </c>
-      <c r="G103" s="6">
-        <v>0</v>
-      </c>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6" t="s">
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="L103" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="104" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C104" s="6"/>
-      <c r="D104" s="6" t="s">
+      <c r="D104" t="s">
         <v>200</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" t="s">
         <v>219</v>
       </c>
-      <c r="F104" s="6">
-        <v>1</v>
-      </c>
-      <c r="G104" s="6">
-        <v>1</v>
-      </c>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6" t="s">
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="L104" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="105" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C105" s="6"/>
-      <c r="D105" s="6" t="s">
+      <c r="D105" t="s">
         <v>201</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" t="s">
         <v>220</v>
       </c>
-      <c r="F105" s="6">
-        <v>1</v>
-      </c>
-      <c r="G105" s="6">
-        <v>1</v>
-      </c>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6" t="s">
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="L105" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="106" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C106" s="6"/>
-      <c r="D106" s="6" t="s">
+      <c r="D106" t="s">
         <v>202</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" t="s">
         <v>221</v>
       </c>
-      <c r="F106" s="6">
-        <v>1</v>
-      </c>
-      <c r="G106" s="6">
-        <v>0</v>
-      </c>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6" t="s">
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="L106" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="107" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C107" s="6"/>
-      <c r="D107" s="6" t="s">
+      <c r="D107" t="s">
         <v>203</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E107" t="s">
         <v>222</v>
       </c>
-      <c r="F107" s="6">
-        <v>1</v>
-      </c>
-      <c r="G107" s="6">
-        <v>0</v>
-      </c>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6" t="s">
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="L107" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="108" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C108" s="6"/>
-      <c r="D108" s="6" t="s">
+      <c r="D108" t="s">
         <v>204</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" t="s">
         <v>223</v>
       </c>
-      <c r="F108" s="6">
-        <v>0</v>
-      </c>
-      <c r="G108" s="6">
-        <v>0</v>
-      </c>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6" t="s">
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="L108" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="109" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C109" s="6"/>
-      <c r="D109" s="6" t="s">
+      <c r="D109" t="s">
         <v>205</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E109" t="s">
         <v>224</v>
       </c>
-      <c r="F109" s="6">
-        <v>1</v>
-      </c>
-      <c r="G109" s="6">
-        <v>0</v>
-      </c>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6" t="s">
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="L109" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="110" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C110" s="6"/>
-      <c r="D110" s="6" t="s">
+      <c r="D110" t="s">
         <v>206</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E110" t="s">
         <v>225</v>
       </c>
-      <c r="F110" s="6">
-        <v>1</v>
-      </c>
-      <c r="G110" s="6">
-        <v>0</v>
-      </c>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6" t="s">
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="L110" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="111" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C111" s="6"/>
-      <c r="D111" s="6" t="s">
+      <c r="D111" t="s">
         <v>207</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" t="s">
         <v>226</v>
       </c>
-      <c r="F111" s="6">
-        <v>0</v>
-      </c>
-      <c r="G111" s="6">
-        <v>0</v>
-      </c>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6" t="s">
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="L111" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="112" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C112" s="6"/>
-      <c r="D112" s="6" t="s">
+      <c r="D112" t="s">
         <v>208</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" t="s">
         <v>227</v>
       </c>
-      <c r="F112" s="6">
-        <v>1</v>
-      </c>
-      <c r="G112" s="6">
-        <v>1</v>
-      </c>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6" t="s">
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="L112" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="113" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C113" s="6"/>
-      <c r="D113" s="6" t="s">
+      <c r="D113" t="s">
         <v>209</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E113" t="s">
         <v>228</v>
       </c>
-      <c r="F113" s="6">
-        <v>1</v>
-      </c>
-      <c r="G113" s="6">
-        <v>0</v>
-      </c>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6" t="s">
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="L113" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="114" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C114" s="6"/>
-      <c r="D114" s="6" t="s">
+      <c r="D114" t="s">
         <v>210</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" t="s">
         <v>229</v>
       </c>
-      <c r="F114" s="6">
-        <v>0</v>
-      </c>
-      <c r="G114" s="6">
-        <v>1</v>
-      </c>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6" t="s">
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="L114" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="115" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C115" s="6"/>
-      <c r="D115" s="6" t="s">
+      <c r="D115" t="s">
         <v>211</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E115" t="s">
         <v>230</v>
       </c>
-      <c r="F115" s="6">
-        <v>1</v>
-      </c>
-      <c r="G115" s="6">
-        <v>1</v>
-      </c>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
-      <c r="L115" s="6" t="s">
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="L115" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="116" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C116" s="6"/>
-      <c r="D116" s="6" t="s">
+      <c r="D116" t="s">
         <v>212</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" t="s">
         <v>231</v>
       </c>
-      <c r="F116" s="6">
-        <v>1</v>
-      </c>
-      <c r="G116" s="6">
-        <v>1</v>
-      </c>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
-      <c r="K116" s="6"/>
-      <c r="L116" s="6" t="s">
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="L116" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="117" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C117" s="6"/>
-      <c r="D117" s="6" t="s">
+      <c r="D117" t="s">
         <v>213</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E117" t="s">
         <v>232</v>
       </c>
-      <c r="F117" s="6">
-        <v>1</v>
-      </c>
-      <c r="G117" s="6">
-        <v>1</v>
-      </c>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6" t="s">
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="L117" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="118" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C118" s="6"/>
-      <c r="D118" s="6" t="s">
+      <c r="D118" t="s">
         <v>214</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E118" t="s">
         <v>233</v>
       </c>
-      <c r="F118" s="6">
-        <v>1</v>
-      </c>
-      <c r="G118" s="6">
-        <v>0</v>
-      </c>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
-      <c r="K118" s="6"/>
-      <c r="L118" s="6" t="s">
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="L118" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="119" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C119" s="6"/>
-      <c r="D119" s="6" t="s">
+      <c r="D119" t="s">
         <v>215</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E119" t="s">
         <v>234</v>
       </c>
-      <c r="F119" s="6">
-        <v>0</v>
-      </c>
-      <c r="G119" s="6">
-        <v>0</v>
-      </c>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6" t="s">
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="L119" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="120" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C120" s="6"/>
-      <c r="D120" s="6" t="s">
+      <c r="D120" t="s">
         <v>216</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" t="s">
         <v>235</v>
       </c>
-      <c r="F120" s="6">
-        <v>1</v>
-      </c>
-      <c r="G120" s="6">
-        <v>1</v>
-      </c>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6" t="s">
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="L120" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="121" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C121" s="6"/>
-      <c r="D121" s="6" t="s">
+      <c r="D121" t="s">
         <v>217</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E121" t="s">
         <v>236</v>
       </c>
-      <c r="F121" s="6">
-        <v>1</v>
-      </c>
-      <c r="G121" s="6">
-        <v>0</v>
-      </c>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
-      <c r="K121" s="6"/>
-      <c r="L121" s="6" t="s">
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="L121" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="122" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C122" s="6"/>
-      <c r="D122" s="6" t="s">
+      <c r="D122" t="s">
         <v>218</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E122" t="s">
         <v>237</v>
       </c>
-      <c r="F122" s="6">
-        <v>1</v>
-      </c>
-      <c r="G122" s="6">
-        <v>0</v>
-      </c>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
-      <c r="L122" s="6" t="s">
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="L122" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
-      <c r="L123" s="6"/>
-    </row>
-    <row r="124" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
-    </row>
     <row r="125" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C125" s="6" t="s">
+      <c r="C125" t="s">
         <v>241</v>
       </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
     </row>
     <row r="126" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C126" s="6"/>
-      <c r="D126" s="6" t="s">
+      <c r="D126" t="s">
         <v>242</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="E126" t="s">
         <v>258</v>
       </c>
-      <c r="F126" s="6">
-        <v>1</v>
-      </c>
-      <c r="G126" s="6">
-        <v>0</v>
-      </c>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
-      <c r="L126" s="6" t="s">
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="L126" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="127" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C127" s="6"/>
-      <c r="D127" s="6" t="s">
+      <c r="D127" t="s">
         <v>243</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="E127" t="s">
         <v>259</v>
       </c>
-      <c r="F127" s="6">
-        <v>1</v>
-      </c>
-      <c r="G127" s="6">
-        <v>0</v>
-      </c>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6" t="s">
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="L127" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="128" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C128" s="6"/>
-      <c r="D128" s="6" t="s">
+      <c r="D128" t="s">
         <v>244</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="E128" t="s">
         <v>260</v>
       </c>
-      <c r="F128" s="6">
-        <v>1</v>
-      </c>
-      <c r="G128" s="6">
-        <v>0</v>
-      </c>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="6"/>
-      <c r="K128" s="6"/>
-      <c r="L128" s="6" t="s">
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="L128" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="129" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C129" s="6"/>
-      <c r="D129" s="6" t="s">
+    <row r="129" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
         <v>245</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="E129" t="s">
         <v>261</v>
       </c>
-      <c r="F129" s="6">
-        <v>1</v>
-      </c>
-      <c r="G129" s="6">
-        <v>1</v>
-      </c>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
-      <c r="L129" s="6" t="s">
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="L129" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="130" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C130" s="6"/>
-      <c r="D130" s="6" t="s">
+    <row r="130" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
         <v>246</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="E130" t="s">
         <v>262</v>
       </c>
-      <c r="F130" s="6">
-        <v>1</v>
-      </c>
-      <c r="G130" s="6">
-        <v>0</v>
-      </c>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
-      <c r="K130" s="6"/>
-      <c r="L130" s="6" t="s">
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="L130" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="131" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C131" s="6"/>
-      <c r="D131" s="6" t="s">
+    <row r="131" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
         <v>247</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="E131" t="s">
         <v>263</v>
       </c>
-      <c r="F131" s="6">
-        <v>1</v>
-      </c>
-      <c r="G131" s="6">
-        <v>0</v>
-      </c>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
-      <c r="L131" s="6" t="s">
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="L131" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="132" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C132" s="6"/>
-      <c r="D132" s="6" t="s">
+    <row r="132" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
         <v>248</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E132" t="s">
         <v>264</v>
       </c>
-      <c r="F132" s="6">
-        <v>0</v>
-      </c>
-      <c r="G132" s="6">
-        <v>0</v>
-      </c>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
-      <c r="L132" s="6" t="s">
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="L132" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="133" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C133" s="6"/>
-      <c r="D133" s="6" t="s">
+    <row r="133" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
         <v>249</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="E133" t="s">
         <v>265</v>
       </c>
-      <c r="F133" s="6">
-        <v>0</v>
-      </c>
-      <c r="G133" s="6">
-        <v>0</v>
-      </c>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
-      <c r="L133" s="6" t="s">
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="L133" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="134" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C134" s="6"/>
-      <c r="D134" s="6" t="s">
+    <row r="134" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
         <v>250</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="E134" t="s">
         <v>266</v>
       </c>
-      <c r="F134" s="6">
-        <v>1</v>
-      </c>
-      <c r="G134" s="6">
-        <v>1</v>
-      </c>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-      <c r="L134" s="6" t="s">
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="L134" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="135" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C135" s="6"/>
-      <c r="D135" s="6" t="s">
+    <row r="135" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
         <v>251</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="E135" t="s">
         <v>267</v>
       </c>
-      <c r="F135" s="6">
-        <v>0</v>
-      </c>
-      <c r="G135" s="6">
-        <v>0</v>
-      </c>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="6" t="s">
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="L135" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="136" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C136" s="6"/>
-      <c r="D136" s="6" t="s">
+    <row r="136" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
         <v>252</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="E136" t="s">
         <v>268</v>
       </c>
-      <c r="F136" s="6">
-        <v>0</v>
-      </c>
-      <c r="G136" s="6">
-        <v>1</v>
-      </c>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-      <c r="L136" s="6" t="s">
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="L136" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C137" s="6"/>
-      <c r="D137" s="6" t="s">
+    <row r="137" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
         <v>253</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E137" t="s">
         <v>269</v>
       </c>
-      <c r="F137" s="6">
-        <v>1</v>
-      </c>
-      <c r="G137" s="6">
-        <v>0</v>
-      </c>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
-      <c r="L137" s="6" t="s">
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="L137" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C138" s="6"/>
-      <c r="D138" s="6" t="s">
+    <row r="138" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
         <v>254</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E138" t="s">
         <v>270</v>
       </c>
-      <c r="F138" s="6">
-        <v>1</v>
-      </c>
-      <c r="G138" s="6">
-        <v>0</v>
-      </c>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
-      <c r="K138" s="6"/>
-      <c r="L138" s="6" t="s">
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="L138" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C139" s="6"/>
-      <c r="D139" s="6" t="s">
+    <row r="139" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
         <v>255</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E139" t="s">
         <v>271</v>
       </c>
-      <c r="F139" s="6">
-        <v>1</v>
-      </c>
-      <c r="G139" s="6">
-        <v>0</v>
-      </c>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
-      <c r="K139" s="6"/>
-      <c r="L139" s="6" t="s">
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="L139" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C140" s="6"/>
-      <c r="D140" s="6" t="s">
+    <row r="140" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
         <v>256</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="E140" t="s">
         <v>272</v>
       </c>
-      <c r="F140" s="6">
-        <v>0</v>
-      </c>
-      <c r="G140" s="6">
-        <v>0</v>
-      </c>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
-      <c r="L140" s="6" t="s">
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="L140" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C141" s="6"/>
-      <c r="D141" s="6" t="s">
+    <row r="141" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
         <v>257</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="E141" t="s">
         <v>273</v>
       </c>
-      <c r="F141" s="6">
-        <v>0</v>
-      </c>
-      <c r="G141" s="6">
-        <v>0</v>
-      </c>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
-      <c r="L141" s="6" t="s">
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="L141" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9178,7 +8792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1463D733-0759-8A48-B631-CEE9AEA848E7}">
   <dimension ref="A2:C148"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9188,10 +8802,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -9205,7 +8819,7 @@
       <c r="B3" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
@@ -9213,7 +8827,7 @@
       <c r="B4" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>1</v>
       </c>
     </row>
@@ -9221,7 +8835,7 @@
       <c r="B5" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
@@ -9229,7 +8843,7 @@
       <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
@@ -9237,7 +8851,7 @@
       <c r="B7" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>1</v>
       </c>
     </row>
@@ -9245,7 +8859,7 @@
       <c r="B8" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>1</v>
       </c>
     </row>
@@ -9253,7 +8867,7 @@
       <c r="B9" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
@@ -9261,7 +8875,7 @@
       <c r="B10" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
@@ -9269,7 +8883,7 @@
       <c r="B11" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>1</v>
       </c>
     </row>
@@ -9277,7 +8891,7 @@
       <c r="B12" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>1</v>
       </c>
     </row>
@@ -9285,7 +8899,7 @@
       <c r="B13" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>1</v>
       </c>
     </row>
@@ -9293,7 +8907,7 @@
       <c r="B14" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>1</v>
       </c>
     </row>
@@ -9301,7 +8915,7 @@
       <c r="B15" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>1</v>
       </c>
     </row>
@@ -9309,7 +8923,7 @@
       <c r="B16" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>1</v>
       </c>
     </row>
@@ -9317,7 +8931,7 @@
       <c r="B17" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
@@ -9325,7 +8939,7 @@
       <c r="B18" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>1</v>
       </c>
     </row>
@@ -9333,7 +8947,7 @@
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>1</v>
       </c>
     </row>
@@ -9341,7 +8955,7 @@
       <c r="B20" t="s">
         <v>224</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20">
         <v>1</v>
       </c>
     </row>
@@ -9349,7 +8963,7 @@
       <c r="A21" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21">
         <v>18</v>
       </c>
     </row>
@@ -9360,7 +8974,7 @@
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22">
         <v>1</v>
       </c>
     </row>
@@ -9368,7 +8982,7 @@
       <c r="A23" t="s">
         <v>284</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23">
         <v>1</v>
       </c>
     </row>
@@ -9379,7 +8993,7 @@
       <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24">
         <v>1</v>
       </c>
     </row>
@@ -9387,7 +9001,7 @@
       <c r="A25" t="s">
         <v>285</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25">
         <v>1</v>
       </c>
     </row>
@@ -9398,7 +9012,7 @@
       <c r="B26" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26">
         <v>1</v>
       </c>
     </row>
@@ -9406,7 +9020,7 @@
       <c r="B27" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27">
         <v>1</v>
       </c>
     </row>
@@ -9414,7 +9028,7 @@
       <c r="B28" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28">
         <v>1</v>
       </c>
     </row>
@@ -9422,7 +9036,7 @@
       <c r="B29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29">
         <v>1</v>
       </c>
     </row>
@@ -9430,7 +9044,7 @@
       <c r="B30" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30">
         <v>1</v>
       </c>
     </row>
@@ -9438,7 +9052,7 @@
       <c r="A31" t="s">
         <v>286</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31">
         <v>5</v>
       </c>
     </row>
@@ -9449,7 +9063,7 @@
       <c r="B32" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32">
         <v>1</v>
       </c>
     </row>
@@ -9457,7 +9071,7 @@
       <c r="A33" t="s">
         <v>287</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33">
         <v>1</v>
       </c>
     </row>
@@ -9468,7 +9082,7 @@
       <c r="B34" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34">
         <v>1</v>
       </c>
     </row>
@@ -9476,7 +9090,7 @@
       <c r="A35" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35">
         <v>1</v>
       </c>
     </row>
@@ -9487,7 +9101,7 @@
       <c r="B36" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36">
         <v>1</v>
       </c>
     </row>
@@ -9495,7 +9109,7 @@
       <c r="B37" t="s">
         <v>230</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37">
         <v>1</v>
       </c>
     </row>
@@ -9503,7 +9117,7 @@
       <c r="B38" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38">
         <v>1</v>
       </c>
     </row>
@@ -9511,7 +9125,7 @@
       <c r="B39" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39">
         <v>1</v>
       </c>
     </row>
@@ -9519,7 +9133,7 @@
       <c r="B40" t="s">
         <v>263</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40">
         <v>1</v>
       </c>
     </row>
@@ -9527,7 +9141,7 @@
       <c r="B41" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41">
         <v>1</v>
       </c>
     </row>
@@ -9535,7 +9149,7 @@
       <c r="B42" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42">
         <v>1</v>
       </c>
     </row>
@@ -9543,7 +9157,7 @@
       <c r="A43" t="s">
         <v>289</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43">
         <v>7</v>
       </c>
     </row>
@@ -9554,7 +9168,7 @@
       <c r="B44" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44">
         <v>1</v>
       </c>
     </row>
@@ -9562,7 +9176,7 @@
       <c r="B45" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45">
         <v>1</v>
       </c>
     </row>
@@ -9570,7 +9184,7 @@
       <c r="B46" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46">
         <v>1</v>
       </c>
     </row>
@@ -9578,7 +9192,7 @@
       <c r="B47" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47">
         <v>1</v>
       </c>
     </row>
@@ -9586,7 +9200,7 @@
       <c r="B48" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48">
         <v>1</v>
       </c>
     </row>
@@ -9594,7 +9208,7 @@
       <c r="B49" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49">
         <v>1</v>
       </c>
     </row>
@@ -9602,7 +9216,7 @@
       <c r="B50" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50">
         <v>1</v>
       </c>
     </row>
@@ -9610,7 +9224,7 @@
       <c r="A51" t="s">
         <v>290</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51">
         <v>7</v>
       </c>
     </row>
@@ -9621,7 +9235,7 @@
       <c r="B52" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52">
         <v>1</v>
       </c>
     </row>
@@ -9629,7 +9243,7 @@
       <c r="B53" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53">
         <v>1</v>
       </c>
     </row>
@@ -9637,7 +9251,7 @@
       <c r="B54" t="s">
         <v>219</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54">
         <v>1</v>
       </c>
     </row>
@@ -9645,7 +9259,7 @@
       <c r="B55" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55">
         <v>1</v>
       </c>
     </row>
@@ -9653,7 +9267,7 @@
       <c r="B56" t="s">
         <v>268</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56">
         <v>1</v>
       </c>
     </row>
@@ -9661,7 +9275,7 @@
       <c r="B57" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57">
         <v>1</v>
       </c>
     </row>
@@ -9669,7 +9283,7 @@
       <c r="B58" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58">
         <v>1</v>
       </c>
     </row>
@@ -9677,7 +9291,7 @@
       <c r="A59" t="s">
         <v>291</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59">
         <v>7</v>
       </c>
     </row>
@@ -9688,7 +9302,7 @@
       <c r="B60" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60">
         <v>1</v>
       </c>
     </row>
@@ -9696,7 +9310,7 @@
       <c r="B61" t="s">
         <v>183</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61">
         <v>1</v>
       </c>
     </row>
@@ -9704,7 +9318,7 @@
       <c r="B62" t="s">
         <v>272</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62">
         <v>1</v>
       </c>
     </row>
@@ -9712,7 +9326,7 @@
       <c r="B63" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63">
         <v>1</v>
       </c>
     </row>
@@ -9720,7 +9334,7 @@
       <c r="B64" t="s">
         <v>184</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64">
         <v>1</v>
       </c>
     </row>
@@ -9728,7 +9342,7 @@
       <c r="B65" t="s">
         <v>141</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65">
         <v>1</v>
       </c>
     </row>
@@ -9736,7 +9350,7 @@
       <c r="B66" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66">
         <v>1</v>
       </c>
     </row>
@@ -9744,7 +9358,7 @@
       <c r="B67" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67">
         <v>1</v>
       </c>
     </row>
@@ -9752,7 +9366,7 @@
       <c r="A68" t="s">
         <v>292</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68">
         <v>8</v>
       </c>
     </row>
@@ -9763,7 +9377,7 @@
       <c r="B69" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69">
         <v>1</v>
       </c>
     </row>
@@ -9771,7 +9385,7 @@
       <c r="A70" t="s">
         <v>293</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70">
         <v>1</v>
       </c>
     </row>
@@ -9782,7 +9396,7 @@
       <c r="B71" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71">
         <v>1</v>
       </c>
     </row>
@@ -9790,7 +9404,7 @@
       <c r="A72" t="s">
         <v>294</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72">
         <v>1</v>
       </c>
     </row>
@@ -9801,7 +9415,7 @@
       <c r="B73" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73">
         <v>1</v>
       </c>
     </row>
@@ -9809,7 +9423,7 @@
       <c r="A74" t="s">
         <v>295</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74">
         <v>1</v>
       </c>
     </row>
@@ -9820,7 +9434,7 @@
       <c r="B75" t="s">
         <v>231</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75">
         <v>1</v>
       </c>
     </row>
@@ -9828,7 +9442,7 @@
       <c r="B76" t="s">
         <v>229</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76">
         <v>1</v>
       </c>
     </row>
@@ -9836,7 +9450,7 @@
       <c r="A77" t="s">
         <v>296</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77">
         <v>2</v>
       </c>
     </row>
@@ -9847,7 +9461,7 @@
       <c r="B78" t="s">
         <v>265</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78">
         <v>1</v>
       </c>
     </row>
@@ -9855,7 +9469,7 @@
       <c r="B79" t="s">
         <v>260</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79">
         <v>1</v>
       </c>
     </row>
@@ -9863,7 +9477,7 @@
       <c r="B80" t="s">
         <v>197</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80">
         <v>1</v>
       </c>
     </row>
@@ -9871,7 +9485,7 @@
       <c r="B81" t="s">
         <v>43</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81">
         <v>1</v>
       </c>
     </row>
@@ -9879,7 +9493,7 @@
       <c r="B82" t="s">
         <v>262</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82">
         <v>1</v>
       </c>
     </row>
@@ -9887,7 +9501,7 @@
       <c r="B83" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83">
         <v>1</v>
       </c>
     </row>
@@ -9895,7 +9509,7 @@
       <c r="B84" t="s">
         <v>273</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84">
         <v>1</v>
       </c>
     </row>
@@ -9903,7 +9517,7 @@
       <c r="B85" t="s">
         <v>48</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85">
         <v>1</v>
       </c>
     </row>
@@ -9911,7 +9525,7 @@
       <c r="B86" t="s">
         <v>223</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86">
         <v>1</v>
       </c>
     </row>
@@ -9919,7 +9533,7 @@
       <c r="B87" t="s">
         <v>76</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87">
         <v>1</v>
       </c>
     </row>
@@ -9927,7 +9541,7 @@
       <c r="B88" t="s">
         <v>261</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88">
         <v>1</v>
       </c>
     </row>
@@ -9935,7 +9549,7 @@
       <c r="B89" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89">
         <v>1</v>
       </c>
     </row>
@@ -9943,7 +9557,7 @@
       <c r="B90" t="s">
         <v>264</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90">
         <v>1</v>
       </c>
     </row>
@@ -9951,7 +9565,7 @@
       <c r="B91" t="s">
         <v>78</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91">
         <v>1</v>
       </c>
     </row>
@@ -9959,7 +9573,7 @@
       <c r="B92" t="s">
         <v>267</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92">
         <v>1</v>
       </c>
     </row>
@@ -9967,7 +9581,7 @@
       <c r="B93" t="s">
         <v>178</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93">
         <v>1</v>
       </c>
     </row>
@@ -9975,7 +9589,7 @@
       <c r="B94" t="s">
         <v>186</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94">
         <v>1</v>
       </c>
     </row>
@@ -9983,7 +9597,7 @@
       <c r="B95" t="s">
         <v>145</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95">
         <v>1</v>
       </c>
     </row>
@@ -9991,7 +9605,7 @@
       <c r="B96" t="s">
         <v>42</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96">
         <v>1</v>
       </c>
     </row>
@@ -9999,7 +9613,7 @@
       <c r="B97" t="s">
         <v>221</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97">
         <v>1</v>
       </c>
     </row>
@@ -10007,7 +9621,7 @@
       <c r="A98" t="s">
         <v>297</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98">
         <v>20</v>
       </c>
     </row>
@@ -10018,7 +9632,7 @@
       <c r="B99" t="s">
         <v>271</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99">
         <v>1</v>
       </c>
     </row>
@@ -10026,7 +9640,7 @@
       <c r="B100" t="s">
         <v>50</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100">
         <v>1</v>
       </c>
     </row>
@@ -10034,7 +9648,7 @@
       <c r="A101" t="s">
         <v>298</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101">
         <v>2</v>
       </c>
     </row>
@@ -10045,7 +9659,7 @@
       <c r="B102" t="s">
         <v>73</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102">
         <v>1</v>
       </c>
     </row>
@@ -10053,7 +9667,7 @@
       <c r="B103" t="s">
         <v>51</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103">
         <v>1</v>
       </c>
     </row>
@@ -10061,7 +9675,7 @@
       <c r="A104" t="s">
         <v>299</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104">
         <v>2</v>
       </c>
     </row>
@@ -10072,7 +9686,7 @@
       <c r="B105" t="s">
         <v>149</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105">
         <v>1</v>
       </c>
     </row>
@@ -10080,7 +9694,7 @@
       <c r="B106" t="s">
         <v>196</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106">
         <v>1</v>
       </c>
     </row>
@@ -10088,7 +9702,7 @@
       <c r="B107" t="s">
         <v>193</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107">
         <v>1</v>
       </c>
     </row>
@@ -10096,7 +9710,7 @@
       <c r="A108" t="s">
         <v>300</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108">
         <v>3</v>
       </c>
     </row>
@@ -10107,7 +9721,7 @@
       <c r="B109" t="s">
         <v>232</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109">
         <v>1</v>
       </c>
     </row>
@@ -10115,7 +9729,7 @@
       <c r="B110" t="s">
         <v>131</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110">
         <v>1</v>
       </c>
     </row>
@@ -10123,7 +9737,7 @@
       <c r="B111" t="s">
         <v>195</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111">
         <v>1</v>
       </c>
     </row>
@@ -10131,7 +9745,7 @@
       <c r="B112" t="s">
         <v>180</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112">
         <v>1</v>
       </c>
     </row>
@@ -10139,7 +9753,7 @@
       <c r="B113" t="s">
         <v>182</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113">
         <v>1</v>
       </c>
     </row>
@@ -10147,7 +9761,7 @@
       <c r="A114" t="s">
         <v>301</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114">
         <v>5</v>
       </c>
     </row>
@@ -10158,7 +9772,7 @@
       <c r="B115" t="s">
         <v>146</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115">
         <v>1</v>
       </c>
     </row>
@@ -10166,7 +9780,7 @@
       <c r="B116" t="s">
         <v>270</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116">
         <v>1</v>
       </c>
     </row>
@@ -10174,7 +9788,7 @@
       <c r="B117" t="s">
         <v>236</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117">
         <v>1</v>
       </c>
     </row>
@@ -10182,7 +9796,7 @@
       <c r="B118" t="s">
         <v>75</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118">
         <v>1</v>
       </c>
     </row>
@@ -10190,7 +9804,7 @@
       <c r="B119" t="s">
         <v>70</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119">
         <v>1</v>
       </c>
     </row>
@@ -10198,7 +9812,7 @@
       <c r="B120" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120">
         <v>1</v>
       </c>
     </row>
@@ -10206,7 +9820,7 @@
       <c r="A121" t="s">
         <v>302</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121">
         <v>6</v>
       </c>
     </row>
@@ -10217,7 +9831,7 @@
       <c r="B122" t="s">
         <v>151</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122">
         <v>1</v>
       </c>
     </row>
@@ -10225,7 +9839,7 @@
       <c r="B123" t="s">
         <v>181</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123">
         <v>1</v>
       </c>
     </row>
@@ -10233,7 +9847,7 @@
       <c r="A124" t="s">
         <v>303</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124">
         <v>2</v>
       </c>
     </row>
@@ -10244,7 +9858,7 @@
       <c r="B125" t="s">
         <v>269</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125">
         <v>1</v>
       </c>
     </row>
@@ -10252,7 +9866,7 @@
       <c r="A126" t="s">
         <v>304</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126">
         <v>1</v>
       </c>
     </row>
@@ -10263,7 +9877,7 @@
       <c r="B127" t="s">
         <v>191</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127">
         <v>1</v>
       </c>
     </row>
@@ -10271,7 +9885,7 @@
       <c r="B128" t="s">
         <v>144</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128">
         <v>1</v>
       </c>
     </row>
@@ -10279,7 +9893,7 @@
       <c r="B129" t="s">
         <v>71</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129">
         <v>1</v>
       </c>
     </row>
@@ -10287,7 +9901,7 @@
       <c r="B130" t="s">
         <v>142</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130">
         <v>1</v>
       </c>
     </row>
@@ -10295,7 +9909,7 @@
       <c r="A131" t="s">
         <v>305</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131">
         <v>4</v>
       </c>
     </row>
@@ -10306,7 +9920,7 @@
       <c r="B132" t="s">
         <v>235</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132">
         <v>1</v>
       </c>
     </row>
@@ -10314,7 +9928,7 @@
       <c r="B133" t="s">
         <v>266</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133">
         <v>1</v>
       </c>
     </row>
@@ -10322,7 +9936,7 @@
       <c r="B134" t="s">
         <v>259</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134">
         <v>1</v>
       </c>
     </row>
@@ -10330,7 +9944,7 @@
       <c r="A135" t="s">
         <v>306</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135">
         <v>3</v>
       </c>
     </row>
@@ -10341,7 +9955,7 @@
       <c r="B136" t="s">
         <v>227</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C136">
         <v>1</v>
       </c>
     </row>
@@ -10349,7 +9963,7 @@
       <c r="B137" t="s">
         <v>179</v>
       </c>
-      <c r="C137" s="6">
+      <c r="C137">
         <v>1</v>
       </c>
     </row>
@@ -10357,7 +9971,7 @@
       <c r="B138" t="s">
         <v>81</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138">
         <v>1</v>
       </c>
     </row>
@@ -10365,7 +9979,7 @@
       <c r="B139" t="s">
         <v>82</v>
       </c>
-      <c r="C139" s="6">
+      <c r="C139">
         <v>1</v>
       </c>
     </row>
@@ -10373,7 +9987,7 @@
       <c r="A140" t="s">
         <v>307</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C140">
         <v>4</v>
       </c>
     </row>
@@ -10384,7 +9998,7 @@
       <c r="B141" t="s">
         <v>16</v>
       </c>
-      <c r="C141" s="6">
+      <c r="C141">
         <v>1</v>
       </c>
     </row>
@@ -10392,7 +10006,7 @@
       <c r="A142" t="s">
         <v>308</v>
       </c>
-      <c r="C142" s="6">
+      <c r="C142">
         <v>1</v>
       </c>
     </row>
@@ -10403,7 +10017,7 @@
       <c r="B143" t="s">
         <v>79</v>
       </c>
-      <c r="C143" s="6">
+      <c r="C143">
         <v>1</v>
       </c>
     </row>
@@ -10411,7 +10025,7 @@
       <c r="B144" t="s">
         <v>72</v>
       </c>
-      <c r="C144" s="6">
+      <c r="C144">
         <v>1</v>
       </c>
     </row>
@@ -10419,7 +10033,7 @@
       <c r="A145" t="s">
         <v>309</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145">
         <v>2</v>
       </c>
     </row>
@@ -10430,19 +10044,17 @@
       <c r="B146" t="s">
         <v>281</v>
       </c>
-      <c r="C146" s="6"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>310</v>
       </c>
-      <c r="C147" s="6"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>282</v>
       </c>
-      <c r="C148" s="6">
+      <c r="C148">
         <v>116</v>
       </c>
     </row>
